--- a/test/resurssit/excel/Paikkausehdotukset_yksi_virhe.xlsx
+++ b/test/resurssit/excel/Paikkausehdotukset_yksi_virhe.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t xml:space="preserve">Paikkausehdotukset 2021</t>
   </si>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">Määrä</t>
   </si>
   <si>
+    <t xml:space="preserve">Yksikkö</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kustannusarvio</t>
   </si>
   <si>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">Paikkausmenetelmät</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yksikkö</t>
   </si>
   <si>
     <t xml:space="preserve">AB-paikkaus levittäjällä </t>
@@ -448,29 +448,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
+      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="4.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="4.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="14.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="47.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="45.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="45.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,10 +486,11 @@
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -503,10 +504,11 @@
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -520,10 +522,11 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" s="13" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N3" s="2"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -563,19 +566,22 @@
       <c r="M4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="16" t="n">
         <v>11746</v>
@@ -603,33 +609,36 @@
         <v>44378</v>
       </c>
       <c r="L5" s="18"/>
-      <c r="M5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="20" t="n">
+      <c r="M5" s="18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="20" t="n">
         <v>10000</v>
       </c>
-      <c r="O5" s="21" t="s">
-        <v>18</v>
+      <c r="P5" s="21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K2"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M5" type="list">
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N5" type="list">
       <formula1>Lähtötiedot!$B$2:$B$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L5" type="list">
+      <formula1>Lähtötiedot!$A$2:$A$17</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M5" type="none">
       <formula1>Lähtötiedot!$A$2:$A$17</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -655,14 +664,14 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.25" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="50.16796875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,7 +695,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
